--- a/vol72.xlsx
+++ b/vol72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="171">
   <si>
     <t>Day</t>
   </si>
@@ -43,39 +43,159 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>Main Lift</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Finisher</t>
   </si>
   <si>
+    <t>Wrist Extension Breathing</t>
+  </si>
+  <si>
+    <t>½ Kneeling T-Spine Rotations Against Wall</t>
+  </si>
+  <si>
+    <t>Supported Alternating Cossack Squat</t>
+  </si>
+  <si>
+    <t>Ankle Mobility Glides on Box/Bench</t>
+  </si>
+  <si>
+    <t>Goblet Kang Squat</t>
+  </si>
+  <si>
+    <t>Copenhagen Hip Dips</t>
+  </si>
+  <si>
+    <t>Cuban Press</t>
+  </si>
+  <si>
+    <t>45° Back Extensions</t>
+  </si>
+  <si>
+    <t>Reach, Roll, Lift</t>
+  </si>
+  <si>
+    <t>Squat (Choose 1)</t>
+  </si>
+  <si>
+    <t>Pogo Hops</t>
+  </si>
+  <si>
+    <t>2KB Rear Foot Elevated Split Squat Alt. Pick Ups</t>
+  </si>
+  <si>
+    <t>Band-Assisted Pull-Ups</t>
+  </si>
+  <si>
+    <t>Stability Ball Hamstring Curl Series</t>
+  </si>
+  <si>
+    <t>Straight Leg Sit Ups</t>
+  </si>
+  <si>
+    <t>2DB Bicep Curls (Myo-Rep)</t>
+  </si>
+  <si>
+    <t>Double or SL Calf Raise off Bumper Plate</t>
+  </si>
+  <si>
+    <t>BB Bench Press</t>
+  </si>
+  <si>
+    <t>BB Conventional Deadlift</t>
+  </si>
+  <si>
+    <t>BB Military Press</t>
+  </si>
+  <si>
+    <t>½ Kneeling T-Spine Rotations</t>
+  </si>
+  <si>
+    <t>Roll to Straddle</t>
+  </si>
+  <si>
+    <t>Glute Bridge w/ Alternating Diagonal Reach</t>
+  </si>
+  <si>
+    <t>Spiderman Lunge w/ ER ISO Hold</t>
+  </si>
+  <si>
+    <t>Cobra to Neck Rotations</t>
+  </si>
+  <si>
+    <t>Crab Stretch</t>
+  </si>
+  <si>
+    <t>Band Lat Stretch</t>
+  </si>
+  <si>
     <t>2DB Seated Alternating Overhead Press</t>
   </si>
   <si>
-    <t>BB Bench Press</t>
-  </si>
-  <si>
     <t>TRX Reverse Flye</t>
   </si>
   <si>
@@ -148,6 +268,42 @@
     <t>Band 45° Glute Kickback</t>
   </si>
   <si>
+    <t>Heels Elevated Goblet Kang Squat</t>
+  </si>
+  <si>
+    <t>Side Lying Adductor Leg Lifts</t>
+  </si>
+  <si>
+    <t>Supermans</t>
+  </si>
+  <si>
+    <t>BB High Bar/Low Bar Back Squat</t>
+  </si>
+  <si>
+    <t>Foot on Box SL Pogo Hops</t>
+  </si>
+  <si>
+    <t>2KB Split Squat Alt. Pick Ups</t>
+  </si>
+  <si>
+    <t>Unassisted Pull-Ups</t>
+  </si>
+  <si>
+    <t>Landmine RDL</t>
+  </si>
+  <si>
+    <t>Hollow Hold Pullover</t>
+  </si>
+  <si>
+    <t>Wall Sit ISO</t>
+  </si>
+  <si>
+    <t>BB Sumo Deadlift</t>
+  </si>
+  <si>
+    <t>BB Push Press</t>
+  </si>
+  <si>
     <t>Open 1/2 Kneel KB Press to Windmill</t>
   </si>
   <si>
@@ -184,9 +340,6 @@
     <t>Weighted Plank, SB Rollout, Ab Wheel Rollout</t>
   </si>
   <si>
-    <t>Unassisted Pull-Ups</t>
-  </si>
-  <si>
     <t>Weighted Split Squat Drop Downs</t>
   </si>
   <si>
@@ -217,6 +370,36 @@
     <t>Quadruped SL Band/Cable Hip Abduction</t>
   </si>
   <si>
+    <t>BB Front Squat</t>
+  </si>
+  <si>
+    <t>2DB Rear Foot Elevated Split Squat</t>
+  </si>
+  <si>
+    <t>Decline SA Bench Supported Row</t>
+  </si>
+  <si>
+    <t>2DB Romanian Deadlift</t>
+  </si>
+  <si>
+    <t>DB Supine Toe Touch</t>
+  </si>
+  <si>
+    <t>Goblet Cyclist Squat</t>
+  </si>
+  <si>
+    <t>Trap Bar Deadlift</t>
+  </si>
+  <si>
+    <t>KB OR DB Goblet Squat</t>
+  </si>
+  <si>
+    <t>3 Point Scooping Row</t>
+  </si>
+  <si>
+    <t>Seated Leg Extension</t>
+  </si>
+  <si>
     <t>3x8</t>
   </si>
   <si>
@@ -268,13 +451,67 @@
     <t>3 sets (15 + 2x failure)</t>
   </si>
   <si>
+    <t>10 breaths</t>
+  </si>
+  <si>
+    <t>8/side</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x10/side</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x8/side</t>
+  </si>
+  <si>
+    <t>3x45s</t>
+  </si>
+  <si>
+    <t>3x4 w/ 2s iso hold</t>
+  </si>
+  <si>
+    <t>3 sets to failure</t>
+  </si>
+  <si>
+    <t>4x10</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x45s/side</t>
+  </si>
+  <si>
+    <t>3x15s holds</t>
+  </si>
+  <si>
+    <t>45s/side</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>RPE 8</t>
   </si>
   <si>
+    <t>RPE 10</t>
+  </si>
+  <si>
+    <t>Myo-Rep / RPE 10</t>
+  </si>
+  <si>
+    <t>RPE 9</t>
+  </si>
+  <si>
     <t>RPE 7</t>
   </si>
   <si>
-    <t>RPE 9</t>
+    <t>RPE 6</t>
   </si>
   <si>
     <t>RPE 6/7</t>
@@ -283,19 +520,13 @@
     <t>Myo-Rep / Failure</t>
   </si>
   <si>
-    <t>RPE 6</t>
-  </si>
-  <si>
     <t>RPE 8+</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>RPE 10</t>
-  </si>
-  <si>
     <t>Rep specifics in TrueCoach</t>
+  </si>
+  <si>
+    <t>Choose one. Aim for 30–45s total work per set.</t>
   </si>
 </sst>
 </file>
@@ -653,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,117 +920,111 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>69</v>
+      <c r="G6" t="s">
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -810,396 +1035,1106 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>152</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>160</v>
+      </c>
+      <c r="I14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F41" t="s">
+        <v>130</v>
+      </c>
+      <c r="H41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>167</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="H21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="F50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
+        <v>141</v>
+      </c>
+      <c r="H59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
         <v>80</v>
       </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
+        <v>143</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="H27" t="s">
-        <v>86</v>
+      <c r="D64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
